--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a2nem\Desktop\Courses\1.001 Computation &amp; Data Science\Simufection-V02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE837525-F6C0-444E-82A8-06A811DA81E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDA15B0-8F09-4152-AB9B-A80104C2DE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -477,7 +477,7 @@
         <v>-85.758499999999998</v>
       </c>
       <c r="D2">
-        <v>17221</v>
+        <v>616447</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>-81.655699999999996</v>
       </c>
       <c r="D3">
-        <v>16021</v>
+        <v>971319</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>-97.743099999999998</v>
       </c>
       <c r="D4">
-        <v>13622</v>
+        <v>974447</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>-95.9345</v>
       </c>
       <c r="D5">
-        <v>13560</v>
+        <v>485153</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>-87.629800000000003</v>
       </c>
       <c r="D6">
-        <v>18948</v>
+        <v>2665000</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>-82.4572</v>
       </c>
       <c r="D7">
-        <v>15251</v>
+        <v>398173</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>-76.612200000000001</v>
       </c>
       <c r="D8">
-        <v>17012</v>
+        <v>569931</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>-71.059799999999996</v>
       </c>
       <c r="D9">
-        <v>20000</v>
+        <v>650706</v>
       </c>
       <c r="E9">
         <v>100</v>
